--- a/調査まとめ.xlsx
+++ b/調査まとめ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\岡山大学\講義\特別研究\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EDF9DE-A57A-44A3-B90D-7FBD1AFE13AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B924183-1DC7-4E81-939D-EF02182056E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,6 +574,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,15 +593,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="AI26" sqref="AI26:AJ26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="79" workbookViewId="0">
+      <selection activeCell="AC26" sqref="AC26:AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -921,164 +921,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37">
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14" t="s">
+      <c r="R1" s="10"/>
+      <c r="S1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14" t="s">
+      <c r="T1" s="10"/>
+      <c r="U1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14" t="s">
+      <c r="V1" s="10"/>
+      <c r="W1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14" t="s">
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14" t="s">
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14" t="s">
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14" t="s">
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14" t="s">
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14" t="s">
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" s="14"/>
+      <c r="AJ1" s="10"/>
     </row>
     <row r="2" spans="2:37">
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="10">
         <v>9502519</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10">
         <v>9502514</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10">
         <v>9502548</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10">
         <v>13501515</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14" t="s">
+      <c r="N2" s="10"/>
+      <c r="O2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10">
         <v>3502511</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14">
+      <c r="R2" s="10"/>
+      <c r="S2" s="10">
         <v>1502003</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10">
         <v>1502158</v>
       </c>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14">
+      <c r="V2" s="10"/>
+      <c r="W2" s="10">
         <v>1502135</v>
       </c>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14">
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10">
         <v>9502061</v>
       </c>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14" t="s">
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14" t="s">
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14" t="s">
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14" t="s">
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14">
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10">
         <v>1620017</v>
       </c>
-      <c r="AJ2" s="14"/>
+      <c r="AJ2" s="10"/>
     </row>
     <row r="3" spans="2:37" ht="18.600000000000001" thickBot="1">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="2:37">
       <c r="B4" s="1" t="s">
@@ -2107,21 +2107,21 @@
       </c>
     </row>
     <row r="15" spans="2:37" ht="18.600000000000001" thickBot="1">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" spans="2:37">
       <c r="B16" t="s">
@@ -2659,37 +2659,37 @@
       </c>
     </row>
     <row r="21" spans="2:36">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
@@ -2701,437 +2701,369 @@
       <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="11">
         <v>4</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="15">
+      <c r="D22" s="12"/>
+      <c r="E22" s="11">
         <v>3.5</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15">
+      <c r="F22" s="12"/>
+      <c r="G22" s="11">
         <v>4</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="15">
+      <c r="H22" s="12"/>
+      <c r="I22" s="11">
         <v>4</v>
       </c>
-      <c r="J22" s="16"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="15">
+      <c r="J22" s="12"/>
+      <c r="K22" s="11">
+        <v>4</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="N22" s="12"/>
+      <c r="O22" s="11">
         <v>3.5</v>
       </c>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="15">
+      <c r="P22" s="12"/>
+      <c r="Q22" s="11">
         <v>3.5</v>
       </c>
-      <c r="R22" s="16"/>
-      <c r="S22" s="15">
+      <c r="R22" s="12"/>
+      <c r="S22" s="11">
         <v>3.5</v>
       </c>
-      <c r="T22" s="16"/>
-      <c r="U22" s="15">
+      <c r="T22" s="12"/>
+      <c r="U22" s="11">
         <v>5</v>
       </c>
-      <c r="V22" s="16"/>
-      <c r="W22" s="15">
+      <c r="V22" s="12"/>
+      <c r="W22" s="11">
         <v>5</v>
       </c>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="15">
+      <c r="X22" s="12"/>
+      <c r="Y22" s="11">
         <v>5</v>
       </c>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="15">
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="11">
         <v>6</v>
       </c>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="15">
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="11">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="11">
         <v>5</v>
       </c>
-      <c r="AF22" s="16"/>
-      <c r="AG22" s="15">
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="11">
         <v>6</v>
       </c>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="15">
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="11">
         <v>6</v>
       </c>
-      <c r="AJ22" s="16"/>
+      <c r="AJ22" s="12"/>
     </row>
     <row r="23" spans="2:36">
       <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="13">
         <v>3.5</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="10">
+      <c r="D23" s="14"/>
+      <c r="E23" s="13">
         <v>6</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10">
+      <c r="F23" s="14"/>
+      <c r="G23" s="13">
         <v>5.5</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="10">
+      <c r="H23" s="14"/>
+      <c r="I23" s="13">
         <v>2.5</v>
       </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="10">
+      <c r="J23" s="14"/>
+      <c r="K23" s="13">
+        <v>5</v>
+      </c>
+      <c r="L23" s="14"/>
+      <c r="M23" s="13">
+        <v>2</v>
+      </c>
+      <c r="N23" s="14"/>
+      <c r="O23" s="13">
         <v>6.5</v>
       </c>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="10">
+      <c r="P23" s="14"/>
+      <c r="Q23" s="13">
         <v>3.5</v>
       </c>
-      <c r="R23" s="11"/>
-      <c r="S23" s="10">
+      <c r="R23" s="14"/>
+      <c r="S23" s="13">
         <v>3.5</v>
       </c>
-      <c r="T23" s="11"/>
-      <c r="U23" s="10">
+      <c r="T23" s="14"/>
+      <c r="U23" s="13">
         <v>6</v>
       </c>
-      <c r="V23" s="11"/>
-      <c r="W23" s="10">
+      <c r="V23" s="14"/>
+      <c r="W23" s="13">
         <v>4.5</v>
       </c>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="10">
+      <c r="X23" s="14"/>
+      <c r="Y23" s="13">
         <v>2.5</v>
       </c>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="10">
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="13">
         <v>5</v>
       </c>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="10">
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="13">
         <v>5</v>
       </c>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="10">
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="13">
         <v>6.5</v>
       </c>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="10">
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="13">
         <v>5</v>
       </c>
-      <c r="AJ23" s="11"/>
+      <c r="AJ23" s="14"/>
     </row>
     <row r="24" spans="2:36">
       <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="13">
         <v>4</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="10">
+      <c r="D24" s="14"/>
+      <c r="E24" s="13">
         <v>6.5</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="10">
+      <c r="F24" s="14"/>
+      <c r="G24" s="13">
         <v>5</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="10">
+      <c r="H24" s="14"/>
+      <c r="I24" s="13">
         <v>3.5</v>
       </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="10">
+      <c r="J24" s="14"/>
+      <c r="K24" s="13">
         <v>5</v>
       </c>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="10">
+      <c r="L24" s="14"/>
+      <c r="M24" s="13">
+        <v>4</v>
+      </c>
+      <c r="N24" s="14"/>
+      <c r="O24" s="13">
+        <v>5</v>
+      </c>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="13">
         <v>2</v>
       </c>
-      <c r="R24" s="11"/>
-      <c r="S24" s="10">
+      <c r="R24" s="14"/>
+      <c r="S24" s="13">
         <v>3.5</v>
       </c>
-      <c r="T24" s="11"/>
-      <c r="U24" s="10">
+      <c r="T24" s="14"/>
+      <c r="U24" s="13">
         <v>3</v>
       </c>
-      <c r="V24" s="11"/>
-      <c r="W24" s="10">
+      <c r="V24" s="14"/>
+      <c r="W24" s="13">
         <v>4.5</v>
       </c>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="10">
+      <c r="X24" s="14"/>
+      <c r="Y24" s="13">
         <v>2.5</v>
       </c>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="10">
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="13">
         <v>4.5</v>
       </c>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="10">
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="13">
         <v>3.5</v>
       </c>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="10">
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="13">
         <v>4</v>
       </c>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="10">
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="13">
         <v>5</v>
       </c>
-      <c r="AJ24" s="11"/>
+      <c r="AJ24" s="14"/>
     </row>
     <row r="25" spans="2:36">
       <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="13">
         <v>6</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="10">
+      <c r="D25" s="14"/>
+      <c r="E25" s="13">
         <v>6</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="10">
+      <c r="F25" s="14"/>
+      <c r="G25" s="13">
         <v>5</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="10">
+      <c r="H25" s="14"/>
+      <c r="I25" s="13">
         <v>7</v>
       </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="10">
+      <c r="J25" s="14"/>
+      <c r="K25" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="L25" s="14"/>
+      <c r="M25" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="N25" s="14"/>
+      <c r="O25" s="13">
         <v>6</v>
       </c>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="10">
+      <c r="P25" s="14"/>
+      <c r="Q25" s="13">
         <v>6</v>
       </c>
-      <c r="R25" s="11"/>
-      <c r="S25" s="10">
+      <c r="R25" s="14"/>
+      <c r="S25" s="13">
         <v>6.5</v>
       </c>
-      <c r="T25" s="11"/>
-      <c r="U25" s="10">
+      <c r="T25" s="14"/>
+      <c r="U25" s="13">
         <v>6</v>
       </c>
-      <c r="V25" s="11"/>
-      <c r="W25" s="10">
+      <c r="V25" s="14"/>
+      <c r="W25" s="13">
         <v>6</v>
       </c>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="10">
+      <c r="X25" s="14"/>
+      <c r="Y25" s="13">
         <v>4.5</v>
       </c>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="10">
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="13">
         <v>2.5</v>
       </c>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="10">
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="13">
         <v>4.5</v>
       </c>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="10">
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="13">
         <v>4</v>
       </c>
-      <c r="AH25" s="11"/>
-      <c r="AI25" s="10">
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="13">
         <v>5.5</v>
       </c>
-      <c r="AJ25" s="11"/>
+      <c r="AJ25" s="14"/>
     </row>
     <row r="26" spans="2:36">
       <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="15">
         <v>5.5</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="12">
+      <c r="D26" s="16"/>
+      <c r="E26" s="15">
         <v>3</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="12">
+      <c r="F26" s="16"/>
+      <c r="G26" s="15">
         <v>3</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="12">
+      <c r="H26" s="16"/>
+      <c r="I26" s="15">
         <v>4</v>
       </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="12">
+      <c r="J26" s="16"/>
+      <c r="K26" s="15">
         <v>2</v>
       </c>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="12">
+      <c r="L26" s="16"/>
+      <c r="M26" s="15">
+        <v>2</v>
+      </c>
+      <c r="N26" s="16"/>
+      <c r="O26" s="15">
+        <v>2</v>
+      </c>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="15">
         <v>4</v>
       </c>
-      <c r="R26" s="13"/>
-      <c r="S26" s="12">
+      <c r="R26" s="16"/>
+      <c r="S26" s="15">
         <v>6</v>
       </c>
-      <c r="T26" s="13"/>
-      <c r="U26" s="12">
+      <c r="T26" s="16"/>
+      <c r="U26" s="15">
         <v>1.5</v>
       </c>
-      <c r="V26" s="13"/>
-      <c r="W26" s="12">
+      <c r="V26" s="16"/>
+      <c r="W26" s="15">
         <v>2.5</v>
       </c>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="12">
+      <c r="X26" s="16"/>
+      <c r="Y26" s="15">
         <v>4</v>
       </c>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="12">
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="15">
         <v>3</v>
       </c>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="12">
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="15">
+        <v>3</v>
+      </c>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="15">
         <v>3.5</v>
       </c>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="12">
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="15">
         <v>4</v>
       </c>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="12">
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="15">
         <v>2.5</v>
       </c>
-      <c r="AJ26" s="13"/>
+      <c r="AJ26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="B15:N15"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
     <mergeCell ref="AC25:AD25"/>
     <mergeCell ref="AC26:AD26"/>
     <mergeCell ref="B21:AD21"/>
@@ -3156,6 +3088,104 @@
     <mergeCell ref="Y24:Z24"/>
     <mergeCell ref="U25:V25"/>
     <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B15:N15"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AG26:AH26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
